--- a/biology/Zoologie/Dendropsophus_ebraccatus/Dendropsophus_ebraccatus.xlsx
+++ b/biology/Zoologie/Dendropsophus_ebraccatus/Dendropsophus_ebraccatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus ebraccatus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus ebraccatus est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 600 m d'altitude dans le sud du Mexique, au Belize, au Guatemala, au Honduras, au Nicaragua, au Costa Rica, au Panama, dans l'est de la Colombie et dans le nord-est de l'Équateur[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 600 m d'altitude dans le sud du Mexique, au Belize, au Guatemala, au Honduras, au Nicaragua, au Costa Rica, au Panama, dans l'est de la Colombie et dans le nord-est de l'Équateur,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1874 : Description of some species of reptiles obtained by Dr. John F. Bransford, Assistant Surgeon United States Navy, while attached to the Nicaraguan surveying expedition in 1873. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 26, p. 64-72 (texte intégral).</t>
         </is>
